--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_2_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>487042.9233247667</v>
+        <v>485155.3418083647</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>338.4244703664878</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>156.5739613985149</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>127.6114349298495</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>9.220846587375998</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>344.1885632976872</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>198.6992958184429</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>54.63122185700568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>129.7411677825657</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>248.8850931379799</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>121.0751874674073</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>59.66385641544548</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>138.3371546162925</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>160.9452050227368</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>66.1408521553538</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1768,10 +1768,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>56.94674408514242</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,22 +1813,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>71.20998000761267</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1895,7 +1895,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2005,13 +2005,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,22 +2053,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>55.76558448901694</v>
       </c>
       <c r="V19" t="n">
-        <v>240.9099076974992</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>28.0388904293851</v>
       </c>
       <c r="S22" t="n">
-        <v>26.66512899970286</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2476,13 +2476,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>192.7569695382277</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2716,13 +2716,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.52587643350356</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>195.5278162435014</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,7 +2776,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533799</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>82.16809304408845</v>
+        <v>93.41221638965541</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437389</v>
+        <v>90.2177913943743</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348202</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571464</v>
+        <v>55.21598883571505</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523545</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550459</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298319</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.03409577002</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952706</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080336</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604798</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235374</v>
+        <v>94.85480468312849</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415232</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593947</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1637.643464250441</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="C2" t="n">
-        <v>1268.68094731003</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>2024.243304314563</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>2024.243304314563</v>
+        <v>1405.321187657107</v>
       </c>
       <c r="Y2" t="n">
-        <v>2024.243304314563</v>
+        <v>1405.321187657107</v>
       </c>
     </row>
     <row r="3">
@@ -4410,22 +4410,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>319.1723320447965</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>319.1723320447965</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>352.67413830922</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>343.360151857325</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>500.8207968750362</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1345.301239238533</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="C5" t="n">
-        <v>1345.301239238533</v>
+        <v>1525.577074624423</v>
       </c>
       <c r="D5" t="n">
-        <v>1345.301239238533</v>
+        <v>1525.577074624423</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>1139.788822026178</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>728.8029172365709</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2267.209817970484</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1936.146930626913</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1735.440571214345</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X5" t="n">
-        <v>1735.440571214345</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y5" t="n">
-        <v>1345.301239238533</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="6">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.7691122461817</v>
+        <v>245.45494510253</v>
       </c>
       <c r="C7" t="n">
-        <v>200.8329293182748</v>
+        <v>245.45494510253</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>245.45494510253</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>245.45494510253</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>245.45494510253</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>245.45494510253</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>597.07729957758</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>369.7691122461817</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>369.7691122461817</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>369.7691122461817</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>369.7691122461817</v>
+        <v>245.45494510253</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.7691122461817</v>
+        <v>245.45494510253</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1359.546482223453</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="C8" t="n">
-        <v>990.5839652830418</v>
+        <v>1878.345729894537</v>
       </c>
       <c r="D8" t="n">
-        <v>632.3182666762914</v>
+        <v>1520.080031287787</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>1134.291778689543</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>723.305873899935</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>305.3420657981219</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.752638628377</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="W8" t="n">
-        <v>1871.983983358263</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="X8" t="n">
-        <v>1749.685814199265</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="Y8" t="n">
-        <v>1359.546482223453</v>
+        <v>2247.308246834949</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>338.1849863041093</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C10" t="n">
-        <v>338.1849863041093</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1849863041093</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X10" t="n">
-        <v>558.9775654476394</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y10" t="n">
-        <v>338.1849863041093</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="11">
@@ -5027,10 +5027,10 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
@@ -5039,10 +5039,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5060,7 +5060,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>857.5427825698953</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>826.1356072130308</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C13" t="n">
-        <v>657.1994242851239</v>
+        <v>860.7301020851611</v>
       </c>
       <c r="D13" t="n">
-        <v>507.0827848727881</v>
+        <v>710.6134626728253</v>
       </c>
       <c r="E13" t="n">
-        <v>359.1696912903951</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>359.1696912903951</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5200,10 +5200,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.499100520942</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y13" t="n">
-        <v>988.7065213774114</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="14">
@@ -5258,7 +5258,7 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5288,7 +5288,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5358,22 +5358,22 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>841.8631140141288</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>471.5883316929519</v>
+        <v>527.8045051785809</v>
       </c>
       <c r="C16" t="n">
-        <v>302.652148765045</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D16" t="n">
-        <v>302.652148765045</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="E16" t="n">
-        <v>154.7390551826519</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="F16" t="n">
-        <v>154.7390551826519</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="G16" t="n">
-        <v>154.7390551826519</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="H16" t="n">
-        <v>154.7390551826519</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.78763177146</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.78763177146</v>
+        <v>820.5263570570734</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344993</v>
+        <v>748.5970843221111</v>
       </c>
       <c r="X16" t="n">
-        <v>692.3809108364819</v>
+        <v>748.5970843221111</v>
       </c>
       <c r="Y16" t="n">
-        <v>471.5883316929519</v>
+        <v>527.8045051785809</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,49 +5498,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5580,34 +5580,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M18" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
-        <v>1646.274692278279</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>542.1367719529251</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C19" t="n">
-        <v>542.1367719529251</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S19" t="n">
         <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247853</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>907.806868603556</v>
       </c>
       <c r="V19" t="n">
-        <v>944.5778159266949</v>
+        <v>907.806868603556</v>
       </c>
       <c r="W19" t="n">
-        <v>944.5778159266949</v>
+        <v>618.3896985665954</v>
       </c>
       <c r="X19" t="n">
-        <v>944.5778159266949</v>
+        <v>390.400147668578</v>
       </c>
       <c r="Y19" t="n">
-        <v>723.7852367831648</v>
+        <v>390.400147668578</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,31 +5735,31 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N20" t="n">
         <v>3183.709822619127</v>
@@ -5768,16 +5768,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5817,40 +5817,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>634.0455001582214</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>880.8106280646855</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.130761344647</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1517.99338900868</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>376.9270045185177</v>
+        <v>416.5712828402494</v>
       </c>
       <c r="C22" t="n">
-        <v>376.9270045185177</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="D22" t="n">
-        <v>376.9270045185177</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="E22" t="n">
-        <v>376.9270045185177</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1470.594159013069</v>
       </c>
       <c r="S22" t="n">
-        <v>1360.906693382654</v>
+        <v>1470.594159013069</v>
       </c>
       <c r="T22" t="n">
-        <v>1137.12127817216</v>
+        <v>1470.594159013069</v>
       </c>
       <c r="U22" t="n">
-        <v>847.9926393857181</v>
+        <v>1181.465520226627</v>
       </c>
       <c r="V22" t="n">
-        <v>847.9926393857181</v>
+        <v>926.7810320207401</v>
       </c>
       <c r="W22" t="n">
-        <v>558.5754693487575</v>
+        <v>637.3638619837795</v>
       </c>
       <c r="X22" t="n">
-        <v>558.5754693487575</v>
+        <v>637.3638619837795</v>
       </c>
       <c r="Y22" t="n">
-        <v>558.5754693487575</v>
+        <v>416.5712828402494</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,25 +5972,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6008,7 +6008,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M24" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1646.274692278279</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2315.738453580939</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>676.0189678006951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>507.0827848727882</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
         <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1193.137157485154</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>904.0085186987125</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>904.0085186987125</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>904.0085186987125</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>676.0189678006951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y25" t="n">
-        <v>676.0189678006951</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6203,52 +6203,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,28 +6300,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1632.773754790662</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2302.237516093321</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>673.9335914287639</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="C28" t="n">
-        <v>673.9335914287639</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="D28" t="n">
-        <v>523.8169520164281</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E28" t="n">
-        <v>523.8169520164281</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6388,16 +6388,16 @@
         <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471189</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1399.395183251332</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1399.395183251332</v>
+        <v>1301.413425867496</v>
       </c>
       <c r="T28" t="n">
-        <v>1399.395183251332</v>
+        <v>1077.628010657002</v>
       </c>
       <c r="U28" t="n">
-        <v>1110.266544464891</v>
+        <v>1077.628010657002</v>
       </c>
       <c r="V28" t="n">
-        <v>855.5820562590036</v>
+        <v>822.9435224511154</v>
       </c>
       <c r="W28" t="n">
-        <v>855.5820562590036</v>
+        <v>822.9435224511154</v>
       </c>
       <c r="X28" t="n">
-        <v>855.5820562590036</v>
+        <v>594.9539715530981</v>
       </c>
       <c r="Y28" t="n">
-        <v>855.5820562590036</v>
+        <v>594.9539715530981</v>
       </c>
     </row>
     <row r="29">
@@ -6440,28 +6440,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6479,13 +6479,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,25 +6537,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542224</v>
+        <v>564.0654479498176</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542224</v>
+        <v>450.8901303032812</v>
       </c>
       <c r="D31" t="n">
-        <v>356.5343561723149</v>
+        <v>356.5343561723162</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723149</v>
+        <v>356.5343561723162</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557756</v>
+        <v>265.4052739557765</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569673</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569673</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933506</v>
+        <v>369.0876362933498</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667516</v>
+        <v>671.4509053667502</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962062</v>
+        <v>997.6688721962045</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286023</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021649</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899273</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096196</v>
+        <v>1791.966918252996</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167073</v>
+        <v>1623.942368323873</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662002</v>
+        <v>1390.574594818802</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737486</v>
+        <v>1191.650971894285</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818966</v>
+        <v>957.9946671386955</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652504</v>
+        <v>785.7659815220488</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030913</v>
+        <v>689.9530474986866</v>
       </c>
     </row>
     <row r="32">
@@ -6677,16 +6677,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6695,34 +6695,34 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525395</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254952</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649684</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860495</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384655</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025261</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -7014,25 +7014,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7096,7 +7096,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7354,13 +7354,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025263</v>
@@ -7372,7 +7372,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
         <v>772.2886129010319</v>
@@ -7388,52 +7388,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,25 +7485,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1026.505047571597</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M42" t="n">
-        <v>1333.825180851558</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>1663.687808515591</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>1943.227873734288</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229674</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7564,16 +7564,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7652,22 +7652,22 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014293</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>242.5343297994526</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>391.6040140015125</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>638.3691419079765</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1406.737288300438</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7795,7 +7795,7 @@
         <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,31 +7804,31 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525401</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7837,7 +7837,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859416</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142014</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>15.83804904622878</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,25 +9006,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>176.7176547498456</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,13 +9252,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>199.6230805871097</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928318</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9480,7 +9480,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>223.6742649934479</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,16 +9726,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>15.83804904622903</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445218</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>29.47535963978268</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445218</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>43.65987261462533</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,25 +10425,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>43.65987261462539</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>199.7396287231153</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>182.034074286795</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11300,7 +11300,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504515</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>449.5135334928325</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,16 +11373,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>104.874910276575</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>18.88677515920051</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>155.4067089030355</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23476,7 +23476,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23656,10 +23656,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>53.47250137912958</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,22 +23701,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>215.3130183289783</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,22 +23941,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>230.4717679095604</v>
       </c>
       <c r="V19" t="n">
-        <v>11.22773562632884</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>81.92546197440771</v>
       </c>
       <c r="S22" t="n">
-        <v>171.2556809839004</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24409,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>28.79059152016151</v>
+        <v>82.3938331833856</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>11.43847597028929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836033</v>
+        <v>2.392993740101844</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700705</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>11.24412334556655</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801182</v>
+        <v>91.23070601801223</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897877</v>
+        <v>93.71057173897918</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523585</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>68.52659204040935</v>
       </c>
     </row>
     <row r="32">
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>1.800799509510398e-12</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1092336.53989583</v>
+        <v>1092336.539895829</v>
       </c>
     </row>
     <row r="12">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>348942.7521923204</v>
+      </c>
+      <c r="C2" t="n">
         <v>348942.7521923205</v>
       </c>
-      <c r="C2" t="n">
-        <v>348942.7521923206</v>
-      </c>
       <c r="D2" t="n">
-        <v>348942.7521923206</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="E2" t="n">
-        <v>332374.7007770524</v>
+        <v>332374.7007770526</v>
       </c>
       <c r="F2" t="n">
         <v>332374.7007770526</v>
       </c>
       <c r="G2" t="n">
+        <v>332374.7007770524</v>
+      </c>
+      <c r="H2" t="n">
+        <v>332374.7007770524</v>
+      </c>
+      <c r="I2" t="n">
         <v>332374.7007770526</v>
       </c>
-      <c r="H2" t="n">
-        <v>332374.7007770523</v>
-      </c>
-      <c r="I2" t="n">
-        <v>332374.7007770525</v>
-      </c>
       <c r="J2" t="n">
-        <v>332374.7007770525</v>
+        <v>332374.7007770526</v>
       </c>
       <c r="K2" t="n">
-        <v>345798.8167434797</v>
+        <v>345798.8167434796</v>
       </c>
       <c r="L2" t="n">
         <v>348942.7521923205</v>
@@ -26347,13 +26347,13 @@
         <v>348942.7521923205</v>
       </c>
       <c r="N2" t="n">
-        <v>348942.7521923206</v>
+        <v>348942.7521923202</v>
       </c>
       <c r="O2" t="n">
         <v>348942.7521923205</v>
       </c>
       <c r="P2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923205</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284592</v>
+        <v>44162.60530284556</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086661</v>
+        <v>10342.90680086697</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028459</v>
+        <v>44162.60530284555</v>
       </c>
     </row>
     <row r="4">
@@ -26427,13 +26427,13 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143912</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143913</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143913</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
@@ -26442,22 +26442,22 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563573</v>
+        <v>33210.29213563561</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="N4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
       <c r="O4" t="n">
         <v>37464.45686275959</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275958</v>
+        <v>37464.45686275959</v>
       </c>
     </row>
     <row r="5">
@@ -26473,40 +26473,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="H5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-480659.1633368561</v>
+        <v>-480659.1633368562</v>
       </c>
       <c r="C6" t="n">
         <v>109308.7158776885</v>
       </c>
       <c r="D6" t="n">
-        <v>109308.7158776885</v>
+        <v>109308.7158776884</v>
       </c>
       <c r="E6" t="n">
-        <v>-299818.3312699995</v>
+        <v>-299915.7903959715</v>
       </c>
       <c r="F6" t="n">
-        <v>225341.7052068968</v>
+        <v>225244.2460809246</v>
       </c>
       <c r="G6" t="n">
-        <v>225341.7052068969</v>
+        <v>225244.2460809245</v>
       </c>
       <c r="H6" t="n">
-        <v>225341.7052068966</v>
+        <v>225244.2460809245</v>
       </c>
       <c r="I6" t="n">
-        <v>225341.7052068968</v>
+        <v>225244.2460809247</v>
       </c>
       <c r="J6" t="n">
-        <v>48918.48601430375</v>
+        <v>48821.02688833175</v>
       </c>
       <c r="K6" t="n">
-        <v>171797.7107747752</v>
+        <v>171779.2170368413</v>
       </c>
       <c r="L6" t="n">
-        <v>203420.2827086689</v>
+        <v>203420.2827086685</v>
       </c>
       <c r="M6" t="n">
-        <v>78962.17427569829</v>
+        <v>78962.17427569834</v>
       </c>
       <c r="N6" t="n">
-        <v>213763.1895095356</v>
+        <v>213763.1895095353</v>
       </c>
       <c r="O6" t="n">
-        <v>213763.1895095356</v>
+        <v>213763.1895095355</v>
       </c>
       <c r="P6" t="n">
-        <v>169600.5842066895</v>
+        <v>169600.5842066899</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,7 +26744,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26753,7 +26753,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26771,7 +26771,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.2032566285574</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108327</v>
+        <v>12.92863350108372</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855737</v>
+        <v>55.20325662855694</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.2032566285574</v>
+        <v>55.20325662855695</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>10.8164983509252</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>213.1571392799542</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>21.0040380883629</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,13 +27591,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>277.0610276546017</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>69.59560672310784</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>150.5416728989701</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>101.5396669847895</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27822,22 +27822,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>82.40437116745323</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>75.0376796263773</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>248.6559132110617</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831824</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>87.37250077274464</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>7.673861546209082e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855695</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855736</v>
+        <v>55.20325662855695</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>326.262426096695</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>509.9122281478584</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
@@ -35972,13 +35972,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>481.9867828282178</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>374.2497035813871</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36446,16 +36446,16 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>222.9314639777537</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>236.5687745713073</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556547</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299105</v>
@@ -36762,7 +36762,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056035</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206028</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504662</v>
@@ -36923,10 +36923,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>326.0235748557334</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412287</v>
+        <v>67.71102679412246</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584679</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084859</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075299</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.480134434161</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491602</v>
+        <v>291.4406081491598</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403581</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004321</v>
+        <v>94.42895660043169</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>376.8544460126382</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,7 +37236,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>482.1033309642235</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37874,7 +37874,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>389.1274892183196</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38020,7 +38020,7 @@
         <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>146.7850892314816</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38111,10 +38111,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
